--- a/Backend/upload/knowledge_files/Du lieu TTHC.xlsx
+++ b/Backend/upload/knowledge_files/Du lieu TTHC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TO NOI DUNG_THAO\CHATBOT\RAG 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D01746-2C5F-4915-86BE-23F4221E4177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{38B01F2F-17BA-4798-9A5B-9D1487E5EC12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$82</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="573">
   <si>
     <t>Tên thủ tục</t>
   </si>
@@ -3287,18 +3288,12 @@
   <si>
     <t>Lý lịch tư pháp (Bộ Công an)</t>
   </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1u7T73yV2ykDv81SMLOTAwVJNSvFBdtZ0/edit?usp=sharing&amp;ouid=101520962950009656677&amp;rtpof=true&amp;sd=true https://docs.google.com/document/d/1bjKcz2AKqil0dkmvz4U6i0UUtA78YydZ/edit?usp=sharing&amp;ouid=101520962950009656677&amp;rtpof=true&amp;sd=true</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -3332,14 +3327,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3349,7 +3336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3372,23 +3359,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3396,6 +3371,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3408,17 +3385,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3730,25 +3698,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6B94C4-C21C-40D4-A93B-08FC1807AC63}">
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.90625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="255.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="10" max="10" width="44.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3778,12 +3743,9 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3813,12 +3775,9 @@
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3833,7 +3792,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>564</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3849,8 +3808,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3881,8 +3840,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3913,8 +3872,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3932,15 +3891,15 @@
       <c r="F6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3958,15 +3917,15 @@
       <c r="F7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3997,14 +3956,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4029,8 +3988,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4061,8 +4020,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -4093,8 +4052,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4125,8 +4084,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4157,8 +4116,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4173,7 +4132,7 @@
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -4189,8 +4148,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4219,8 +4178,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4251,8 +4210,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4283,8 +4242,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4313,8 +4272,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4343,8 +4302,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4375,8 +4334,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4407,8 +4366,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>270</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4437,8 +4396,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>275</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4469,8 +4428,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4499,8 +4458,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>270</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4529,8 +4488,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>275</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4561,8 +4520,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4593,8 +4552,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4625,8 +4584,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4657,8 +4616,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4689,8 +4648,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4721,8 +4680,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:10" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4753,8 +4712,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:10" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4785,8 +4744,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:10" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4817,8 +4776,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:10" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4849,8 +4808,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4881,8 +4840,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:10" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4913,8 +4872,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:10" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -4945,8 +4904,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:10" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4977,8 +4936,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5009,8 +4968,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -5041,8 +5000,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5073,8 +5032,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>217</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -5105,8 +5064,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>286</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -5127,7 +5086,7 @@
       <c r="G44" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="7" t="s">
         <v>563</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -5137,8 +5096,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -5169,8 +5128,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -5201,8 +5160,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -5233,8 +5192,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>312</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -5265,8 +5224,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>317</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5297,8 +5256,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>327</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -5329,8 +5288,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
         <v>335</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -5361,8 +5320,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
         <v>344</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -5380,15 +5339,15 @@
       <c r="F52" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>349</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -5419,8 +5378,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>358</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -5451,8 +5410,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>365</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -5470,15 +5429,15 @@
       <c r="F55" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
         <v>371</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -5509,8 +5468,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:10" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
         <v>379</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -5541,8 +5500,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="166.8" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:10" ht="180.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -5573,8 +5532,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>397</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -5605,8 +5564,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
         <v>404</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -5637,8 +5596,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
         <v>412</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -5669,8 +5628,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
         <v>418</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -5701,8 +5660,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>427</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -5733,8 +5692,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>435</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -5765,8 +5724,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>442</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -5797,8 +5756,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="70.2" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:10" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>450</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -5816,15 +5775,15 @@
       <c r="F66" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-    </row>
-    <row r="67" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>456</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -5855,8 +5814,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
         <v>463</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -5887,8 +5846,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:10" ht="90.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>470</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -5919,8 +5878,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
         <v>478</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -5951,8 +5910,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:10" ht="150.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
         <v>484</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5983,8 +5942,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
         <v>491</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -6015,8 +5974,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
         <v>498</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -6047,8 +6006,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
         <v>505</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -6079,8 +6038,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
         <v>512</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -6111,8 +6070,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="70.2" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:10" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
         <v>519</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -6143,8 +6102,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
         <v>527</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -6175,8 +6134,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="56.4" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:10" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
         <v>533</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -6207,8 +6166,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
         <v>540</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -6226,15 +6185,15 @@
       <c r="F79" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-    </row>
-    <row r="80" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
         <v>545</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -6252,15 +6211,15 @@
       <c r="F80" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
         <v>551</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -6278,15 +6237,15 @@
       <c r="F81" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-    </row>
-    <row r="82" spans="1:10" ht="42.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
         <v>556</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -6304,15 +6263,15 @@
       <c r="F82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-    </row>
-    <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
         <v>565</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -6330,128 +6289,127 @@
       <c r="F83" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="H83" s="12" t="s">
+      <c r="H83" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="I83" s="12" t="s">
+      <c r="I83" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J83" s="12" t="s">
+      <c r="J83" s="6" t="s">
         <v>572</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J82"/>
+  <autoFilter ref="A1:J82" xr:uid="{BB6B94C4-C21C-40D4-A93B-08FC1807AC63}"/>
   <mergeCells count="10">
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="G82:J82"/>
     <mergeCell ref="G83:J83"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G82:J82"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G27" r:id="rId14"/>
-    <hyperlink ref="G28" r:id="rId15"/>
-    <hyperlink ref="G29" r:id="rId16"/>
-    <hyperlink ref="G30" r:id="rId17"/>
-    <hyperlink ref="G31" r:id="rId18"/>
-    <hyperlink ref="G32" r:id="rId19"/>
-    <hyperlink ref="G33" r:id="rId20"/>
-    <hyperlink ref="G34" r:id="rId21"/>
-    <hyperlink ref="G35" r:id="rId22"/>
-    <hyperlink ref="G36" r:id="rId23"/>
-    <hyperlink ref="G37" r:id="rId24"/>
-    <hyperlink ref="G38" r:id="rId25"/>
-    <hyperlink ref="G39" r:id="rId26"/>
-    <hyperlink ref="G40" r:id="rId27"/>
-    <hyperlink ref="G41" r:id="rId28"/>
-    <hyperlink ref="G42" r:id="rId29"/>
-    <hyperlink ref="G43" r:id="rId30"/>
-    <hyperlink ref="G15" r:id="rId31"/>
-    <hyperlink ref="G16" r:id="rId32"/>
-    <hyperlink ref="G17" r:id="rId33"/>
-    <hyperlink ref="G18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="G20" r:id="rId36"/>
-    <hyperlink ref="G21" r:id="rId37"/>
-    <hyperlink ref="G22" r:id="rId38"/>
-    <hyperlink ref="G23" r:id="rId39"/>
-    <hyperlink ref="G24" r:id="rId40"/>
-    <hyperlink ref="G25" r:id="rId41"/>
-    <hyperlink ref="G26" r:id="rId42"/>
-    <hyperlink ref="G44" r:id="rId43"/>
-    <hyperlink ref="G45" r:id="rId44"/>
-    <hyperlink ref="G46" r:id="rId45"/>
-    <hyperlink ref="G47" r:id="rId46"/>
-    <hyperlink ref="G48" r:id="rId47"/>
-    <hyperlink ref="G49" r:id="rId48"/>
-    <hyperlink ref="G50" r:id="rId49"/>
-    <hyperlink ref="G51" r:id="rId50"/>
-    <hyperlink ref="G52" r:id="rId51"/>
-    <hyperlink ref="G53" r:id="rId52"/>
-    <hyperlink ref="G54" r:id="rId53"/>
-    <hyperlink ref="G55" r:id="rId54"/>
-    <hyperlink ref="G56" r:id="rId55"/>
-    <hyperlink ref="G57" r:id="rId56"/>
-    <hyperlink ref="G58" r:id="rId57"/>
-    <hyperlink ref="G59" r:id="rId58"/>
-    <hyperlink ref="G60" r:id="rId59"/>
-    <hyperlink ref="G61" r:id="rId60"/>
-    <hyperlink ref="G62" r:id="rId61"/>
-    <hyperlink ref="G63" r:id="rId62"/>
-    <hyperlink ref="G64" r:id="rId63"/>
-    <hyperlink ref="G65" r:id="rId64"/>
-    <hyperlink ref="G66" r:id="rId65"/>
-    <hyperlink ref="G67" r:id="rId66"/>
-    <hyperlink ref="G68" r:id="rId67"/>
-    <hyperlink ref="G69" r:id="rId68"/>
-    <hyperlink ref="G70" r:id="rId69"/>
-    <hyperlink ref="G71" r:id="rId70"/>
-    <hyperlink ref="G72" r:id="rId71"/>
-    <hyperlink ref="G73" r:id="rId72"/>
-    <hyperlink ref="G74" r:id="rId73"/>
-    <hyperlink ref="G75" r:id="rId74"/>
-    <hyperlink ref="G76" r:id="rId75"/>
-    <hyperlink ref="G77" r:id="rId76"/>
-    <hyperlink ref="G78" r:id="rId77"/>
-    <hyperlink ref="G79" r:id="rId78"/>
-    <hyperlink ref="G80" r:id="rId79"/>
-    <hyperlink ref="G81" r:id="rId80"/>
-    <hyperlink ref="G82" r:id="rId81"/>
-    <hyperlink ref="K2" r:id="rId82" display="https://docs.google.com/document/d/1bjKcz2AKqil0dkmvz4U6i0UUtA78YydZ/edit "/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{F9AABF94-839A-4E49-A415-726E0DDB9044}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{0CA84323-C69D-42E3-883D-45C035B5F165}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{68400469-2A3A-4669-859B-AC502ED4AA47}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{DC406E34-F1A8-455E-BAC4-DF54F0B32DCF}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{BB616024-3E1A-4F51-A65B-1969C4FB4363}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{231F03FC-3BE0-44A6-80C9-77D3885271F9}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{20634C50-8162-471A-924B-DFEE70B7C97E}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{044637DE-CD23-4D64-9593-A3D8F47923C6}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{B6C6A0F6-E194-4895-B80A-6565FAE46AEE}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{A216AB94-6324-4407-B030-B29233D1BD66}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{39262B52-0C45-4EB8-AB87-26578AC885A1}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{1B28C755-DC74-4756-AC69-94EC26B13265}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{9EFE0A6B-E620-4423-BECF-C0F78F018DD5}"/>
+    <hyperlink ref="G27" r:id="rId14" xr:uid="{0F389247-D45E-4B6E-B977-DD8FB5A715FA}"/>
+    <hyperlink ref="G28" r:id="rId15" xr:uid="{1C613181-9A11-43F0-91D9-C4B4D0E63134}"/>
+    <hyperlink ref="G29" r:id="rId16" xr:uid="{0449352E-13E3-4016-A410-F7C28B012441}"/>
+    <hyperlink ref="G30" r:id="rId17" xr:uid="{AC2BB799-538B-469D-BB73-9EE9BF622792}"/>
+    <hyperlink ref="G31" r:id="rId18" xr:uid="{96C1B2B9-72B7-45BF-977C-4C6EB06BD189}"/>
+    <hyperlink ref="G32" r:id="rId19" xr:uid="{A58FC4B0-48DF-4C65-B5EA-5C2FE1E12A3C}"/>
+    <hyperlink ref="G33" r:id="rId20" xr:uid="{D30E8AD5-0CEF-409F-B7DF-06419B28102B}"/>
+    <hyperlink ref="G34" r:id="rId21" xr:uid="{9D7A0A53-8AF3-46CB-B0B3-3B8FE64103E9}"/>
+    <hyperlink ref="G35" r:id="rId22" xr:uid="{FD3A5104-CEFA-4B0C-A189-7417B5A1EC9E}"/>
+    <hyperlink ref="G36" r:id="rId23" xr:uid="{A681D453-8221-4754-99C4-92168B584560}"/>
+    <hyperlink ref="G37" r:id="rId24" xr:uid="{F47283F5-D3B1-44AB-BCF2-A2A7CA23E463}"/>
+    <hyperlink ref="G38" r:id="rId25" xr:uid="{077DDE5C-7C80-4000-AE9E-600AE949631B}"/>
+    <hyperlink ref="G39" r:id="rId26" xr:uid="{C12B6C91-A201-44C0-8D24-9677828F03D5}"/>
+    <hyperlink ref="G40" r:id="rId27" xr:uid="{E727D5F6-4BD6-446A-9820-962C9DE0E2B9}"/>
+    <hyperlink ref="G41" r:id="rId28" xr:uid="{70E6300A-4CF6-42A9-8AD4-65D7A578B22E}"/>
+    <hyperlink ref="G42" r:id="rId29" xr:uid="{1DEFED24-5E33-4632-9813-F7B82C5AB48C}"/>
+    <hyperlink ref="G43" r:id="rId30" xr:uid="{D51DA3B1-C662-43DF-9643-250202690A7C}"/>
+    <hyperlink ref="G15" r:id="rId31" xr:uid="{C874804D-4AD0-4210-83EB-8F8846ACB1B7}"/>
+    <hyperlink ref="G16" r:id="rId32" xr:uid="{39306AF9-07DD-4E55-9E84-F6CACB44325E}"/>
+    <hyperlink ref="G17" r:id="rId33" xr:uid="{8DA8FD1C-FC0F-4B9F-936E-CF9CFB9B6534}"/>
+    <hyperlink ref="G18" r:id="rId34" xr:uid="{95C6C5CC-7B04-4784-805C-479FB0F9133F}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{DC6EDA19-7A89-4F43-A187-B754869797A5}"/>
+    <hyperlink ref="G20" r:id="rId36" xr:uid="{02577662-040F-491E-8ED2-5E2DDA41E020}"/>
+    <hyperlink ref="G21" r:id="rId37" xr:uid="{E764AD36-61E4-413D-8C6D-EF55D4B21B5C}"/>
+    <hyperlink ref="G22" r:id="rId38" xr:uid="{3C19D318-54DD-4C4C-8900-CD898AB84374}"/>
+    <hyperlink ref="G23" r:id="rId39" xr:uid="{A33C5655-D2B2-41BA-8E7A-2554FA1C6539}"/>
+    <hyperlink ref="G24" r:id="rId40" xr:uid="{3269FA3F-4E31-401C-BA04-ABB385D89978}"/>
+    <hyperlink ref="G25" r:id="rId41" xr:uid="{49ACBCDF-C45A-4829-B154-F88F9173A02B}"/>
+    <hyperlink ref="G26" r:id="rId42" xr:uid="{FEBD517F-5863-4036-9919-C715BC3EED42}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{6A925406-217D-45FD-AFB9-5377BBA88847}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{5FCD8305-BF01-4C65-9124-A7B30957B152}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{12CF7926-192B-48B1-9C88-26117FE47A74}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{81045312-F489-4424-AE31-9DAB820970B4}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{6C42A82D-62D2-40EB-BA66-D647C1C7C1AA}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{1818C4B7-85EF-4BE8-ABCE-0D2CDCC6F3F7}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{07CCA121-0183-424F-A471-7B40DC50681C}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{80C97DCB-9D96-4BFA-9CF6-AF797ED5FE6F}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{40E6803E-0D0F-4868-BD1D-A515238CFB01}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{04D1C695-3FCE-47A2-BC1E-4ED21A54E957}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{3BAFA9A4-6AF3-484D-A7C8-BDEDC52B0B04}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{B5B5B0D4-C596-4F70-BF1E-56075C41E9BB}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{12890F36-9265-4163-B167-44783C9A71F5}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{57A17A16-D19D-4AD1-9083-5A76679148E3}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{308670B5-4595-4562-AACF-EB83CBFA06C0}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{747C02AC-8E33-4749-AE0E-03233EF9D008}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{966A1E18-F318-45FB-B7BB-AF568FA15D82}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{07B7A026-E774-41BB-BBF1-7E8FB81331E5}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{46ACCB10-F5DA-4609-B12E-8F801653CF61}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{B980647D-4D23-4BFF-90E8-943BAFB58C52}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{1F381A23-9FF3-449D-9C59-C4788D167E59}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{29823DFE-835E-415F-AF85-C3F61A820FE7}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{985A78E6-ABA5-421F-B01D-2EBA6AF3B6D2}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{225480C6-01FE-4BE0-9420-C8509F9EEA18}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{6CEEA21A-C6DD-4665-9285-5AD3B20EBD4E}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{741698FC-C9C4-40AC-9711-C04D5A43C108}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{02C5F92B-8FD9-48F1-91C6-6FDC7144CC1E}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{7475FFA1-15B3-447C-AEDD-48EC899DAB97}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{4366EFFD-B2B0-4BE6-8281-7C1D4D896CF8}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{E43A3AED-03CE-4AF5-A7F0-9E9C2E37BDC5}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{1E1C2CF4-34E3-4528-93C7-9369782489B7}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{B6512590-AEE4-47D3-BBD1-D26C20C4E199}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{B2508634-8F02-470D-A1A7-24C1360757F4}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{0108FB75-146A-4C1C-AE65-B6307E4A2B0E}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{E528E82C-CF45-45FE-A67C-81E45FF0E1B2}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{BABFB391-4738-4CE7-A699-24643490D9C3}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{67760176-9594-46C3-8650-E0B5B94837B1}"/>
+    <hyperlink ref="G81" r:id="rId80" xr:uid="{ACB78D11-9270-4128-9297-6770FF567660}"/>
+    <hyperlink ref="G82" r:id="rId81" xr:uid="{B4735CFA-4ECF-4681-971B-AA64B4D024CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F48253D-F0E5-42E0-82EA-B2321E50641B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
